--- a/file-format-old_new-from DP_v2.xlsx
+++ b/file-format-old_new-from DP_v2.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2006\10\20061050\MND Rapporter\Nye Ditester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpl886\Documents\Exjobb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020FF36-3B01-474B-9375-1E01E27EB2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
   <si>
     <t>N13, D, 12.74</t>
   </si>
@@ -732,12 +745,15 @@
   </si>
   <si>
     <t>14.95594</t>
+  </si>
+  <si>
+    <t>2009-11-05-08:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -811,6 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,27 +1107,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
@@ -1151,12 +1176,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>199</v>
       </c>
@@ -1196,8 +1221,11 @@
       <c r="M4" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>205</v>
       </c>
@@ -1238,7 +1266,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>211</v>
       </c>
@@ -1279,7 +1307,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>217</v>
       </c>
@@ -1320,7 +1348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -1361,7 +1389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>227</v>
       </c>
@@ -1402,7 +1430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>233</v>
       </c>
@@ -1423,7 +1451,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1438,7 +1466,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1453,7 +1481,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1468,7 +1496,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1483,7 +1511,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1498,7 +1526,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>179</v>
       </c>
@@ -1536,12 +1564,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1607,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1645,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1683,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1721,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1759,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1797,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1835,7 @@
         <v>5174</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1873,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1883,7 +1911,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1949,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1932,12 +1960,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>183</v>
       </c>
@@ -1960,12 +1988,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1988,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -2011,7 +2039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -2034,7 +2062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2057,7 +2085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2080,7 +2108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2103,7 +2131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2126,7 +2154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
@@ -2149,7 +2177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2172,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
@@ -2195,7 +2223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -2212,7 +2240,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>67</v>
       </c>
@@ -2226,12 +2254,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2239,7 +2267,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>113</v>
       </c>
@@ -2255,7 +2283,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -2271,7 +2299,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>117</v>
       </c>
@@ -2287,7 +2315,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>119</v>
       </c>
@@ -2303,7 +2331,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>121</v>
       </c>
@@ -2319,7 +2347,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>123</v>
       </c>
@@ -2335,7 +2363,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>125</v>
       </c>
@@ -2351,7 +2379,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>127</v>
       </c>
@@ -2367,7 +2395,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>129</v>
       </c>
@@ -2383,7 +2411,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>131</v>
       </c>
@@ -2399,7 +2427,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2407,7 +2435,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2415,12 +2443,12 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>179</v>
       </c>
@@ -2440,12 +2468,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
@@ -2485,7 +2513,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>54</v>
       </c>
@@ -2525,7 +2553,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -2545,7 +2573,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>56</v>
       </c>
@@ -2565,7 +2593,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>57</v>
       </c>
@@ -2585,7 +2613,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>58</v>
       </c>
@@ -2605,7 +2633,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,7 +2653,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -2645,7 +2673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -2665,7 +2693,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>62</v>
       </c>
@@ -2685,7 +2713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>63</v>
       </c>
@@ -2705,7 +2733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>153</v>
       </c>
@@ -2725,7 +2753,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>156</v>
       </c>
@@ -2745,7 +2773,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>159</v>
       </c>
@@ -2763,7 +2791,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>182</v>
       </c>
@@ -2780,12 +2808,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>51</v>
       </c>
@@ -2802,7 +2830,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
@@ -2819,7 +2847,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>54</v>
       </c>
@@ -2853,7 +2881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>55</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>56</v>
       </c>
@@ -2887,7 +2915,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +2932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>58</v>
       </c>
@@ -2921,7 +2949,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>59</v>
       </c>
@@ -2938,7 +2966,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>60</v>
       </c>
@@ -2955,7 +2983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>61</v>
       </c>
@@ -2972,7 +3000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>62</v>
       </c>
@@ -2989,7 +3017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>63</v>
       </c>
@@ -3006,7 +3034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>153</v>
       </c>
@@ -3023,7 +3051,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>156</v>
       </c>
@@ -3040,7 +3068,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>159</v>
       </c>
@@ -3057,7 +3085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>171</v>
       </c>
@@ -3074,7 +3102,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>173</v>
       </c>
@@ -3091,7 +3119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>175</v>
       </c>
@@ -3108,7 +3136,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3119,4 +3147,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF95AC37-3466-49BD-9782-97262290ADCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>